--- a/publication/supplements/S2_general_benchmark.xlsx
+++ b/publication/supplements/S2_general_benchmark.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="S2_general_benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>H</t>
   </si>
@@ -88,49 +88,43 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Predsi</t>
-  </si>
-  <si>
     <t>Philius</t>
   </si>
   <si>
     <t>Phobius</t>
   </si>
   <si>
-    <t>SignalP 4.1. (no tm)</t>
-  </si>
-  <si>
-    <t>SignalP 4.1. (tm)</t>
-  </si>
-  <si>
-    <t>SignalP 3.0 (NN)</t>
-  </si>
-  <si>
-    <t>SignalP 3.0 (HMM)</t>
-  </si>
-  <si>
-    <t>signalHsmm_1987</t>
-  </si>
-  <si>
-    <t>signalHsmm_1987 (raw aa)</t>
-  </si>
-  <si>
-    <t>signalHsmm_1987 (homol. red. 50%)</t>
-  </si>
-  <si>
-    <t>signalHsmm_1987 (homol. red. 90%)</t>
-  </si>
-  <si>
-    <t>signalHsmm_2010</t>
-  </si>
-  <si>
-    <t>signalHsmm_2010 (raw aa)</t>
-  </si>
-  <si>
-    <t>signalHsmm_2010 (homol. red. 50%)</t>
-  </si>
-  <si>
-    <t>signalHsmm_2010 (homol. red. 90%)</t>
+    <t>signalP 4.1 (no tm)</t>
+  </si>
+  <si>
+    <t>signalP 4.1 (tm)</t>
+  </si>
+  <si>
+    <t>signalP 3.0 (NN)</t>
+  </si>
+  <si>
+    <t>signalP 3.0 (HMM)</t>
+  </si>
+  <si>
+    <t>PrediSi</t>
+  </si>
+  <si>
+    <t>signalHsmm-2010</t>
+  </si>
+  <si>
+    <t>signalHsmm-2010 (homol. red. 50%)</t>
+  </si>
+  <si>
+    <t>signalHsmm-2010 (raw aa)</t>
+  </si>
+  <si>
+    <t>signalHsmm-1987</t>
+  </si>
+  <si>
+    <t>signalHsmm-1987 (homol. red. 50%)</t>
+  </si>
+  <si>
+    <t>signalHsmm-1987 (raw aa)</t>
   </si>
 </sst>
 </file>
@@ -639,11 +633,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -986,30 +981,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1080,11 +1066,11 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>0.83734500000000001</v>
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.83706800000000003</v>
       </c>
       <c r="C2">
         <v>0.89763800000000005</v>
@@ -1105,90 +1091,90 @@
         <v>5.1180999999999997E-2</v>
       </c>
       <c r="I2">
-        <v>0.99864600000000003</v>
+        <v>0.99984099999999998</v>
       </c>
       <c r="J2">
-        <v>0.28517100000000001</v>
+        <v>8.8469999999999993E-2</v>
       </c>
       <c r="K2">
         <v>5.1180999999999997E-2</v>
       </c>
       <c r="L2">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="M2">
-        <v>0.92913400000000002</v>
+        <v>0.944882</v>
       </c>
       <c r="N2">
-        <v>0.93181800000000004</v>
+        <v>0.94531200000000004</v>
       </c>
       <c r="O2">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="P2">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="Q2">
-        <v>7.0865999999999998E-2</v>
+        <v>5.5118E-2</v>
       </c>
       <c r="R2">
-        <v>0.94980699999999996</v>
+        <v>0.94901999999999997</v>
       </c>
       <c r="S2">
         <v>0.89763800000000005</v>
       </c>
       <c r="T2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X2">
-        <v>0.89833399999999997</v>
+        <v>0.89766599999999996</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <v>0.91227999999999998</v>
+        <v>0.88757399999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>0.944882</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>0.972441</v>
+        <v>0.96456699999999995</v>
       </c>
       <c r="E3" s="1">
-        <v>0.972441</v>
+        <v>0.96456699999999995</v>
       </c>
       <c r="F3" s="1">
-        <v>0.944882</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="G3" s="1">
-        <v>2.7559E-2</v>
+        <v>3.5432999999999999E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>2.7559E-2</v>
+        <v>3.5432999999999999E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>9.2856999999999995E-2</v>
+        <v>0.29444399999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.99724400000000002</v>
+        <v>0.99645700000000004</v>
       </c>
       <c r="K3" s="1">
-        <v>2.7559E-2</v>
+        <v>3.5432999999999999E-2</v>
       </c>
       <c r="L3" s="1">
-        <v>0.944882</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -1197,22 +1183,22 @@
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>0.944882</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="P3" s="1">
-        <v>0.944882</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>0.97165999999999997</v>
+        <v>0.96326500000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>0.944882</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="T3" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -1221,17 +1207,17 @@
         <v>127</v>
       </c>
       <c r="W3" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X3" s="1">
-        <v>0.94632000000000005</v>
+        <v>0.93147599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.87443700000000002</v>
       </c>
       <c r="C4">
@@ -1303,83 +1289,83 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>0.13178300000000001</v>
+        <v>0.78835699999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>0.22834599999999999</v>
+        <v>0.86614199999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>0.61417299999999997</v>
+        <v>0.93307099999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.61417299999999997</v>
+        <v>0.93307099999999998</v>
       </c>
       <c r="F5" s="1">
-        <v>0.22834599999999999</v>
+        <v>0.86614199999999997</v>
       </c>
       <c r="G5" s="1">
-        <v>0.38582699999999998</v>
+        <v>6.6929000000000002E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>0.38582699999999998</v>
+        <v>6.6929000000000002E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.96141699999999997</v>
+        <v>0.99895400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.93520400000000004</v>
+        <v>0.452297</v>
       </c>
       <c r="K5" s="1">
-        <v>0.38582699999999998</v>
+        <v>6.6929000000000002E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>0.22834599999999999</v>
+        <v>0.90551199999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>0.56444399999999995</v>
+        <v>0.91044800000000004</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.77165399999999995</v>
+        <v>9.4488000000000003E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>0.72159099999999998</v>
+        <v>0.93486599999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>0.22834599999999999</v>
+        <v>0.86614199999999997</v>
       </c>
       <c r="T5" s="1">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U5" s="1">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="V5" s="1">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="1">
-        <v>0.35901100000000002</v>
+        <v>0.86746000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
         <v>0.62039200000000005</v>
       </c>
       <c r="C6">
@@ -1451,7 +1437,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0.73929199999999995</v>
@@ -1525,7 +1511,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0.77594099999999999</v>
@@ -1599,627 +1585,447 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>0.84473600000000004</v>
+        <v>0.81262199999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>0.94308400000000003</v>
+        <v>0.88188999999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>0.97154200000000002</v>
+        <v>0.94094500000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.97848599999999997</v>
+        <v>0.94094500000000003</v>
       </c>
       <c r="F9" s="1">
-        <v>0.89763800000000005</v>
+        <v>0.88188999999999995</v>
       </c>
       <c r="G9" s="1">
-        <v>5.1180999999999997E-2</v>
+        <v>5.9055000000000003E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>5.1180999999999997E-2</v>
+        <v>5.9055000000000003E-2</v>
       </c>
       <c r="I9" s="1">
-        <v>0.93700799999999995</v>
+        <v>0.99912900000000004</v>
       </c>
       <c r="J9" s="1">
+        <v>0.35063</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5.9055000000000003E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.96062999999999998</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.92125999999999997</v>
       </c>
-      <c r="K9" s="1">
-        <v>0.161417</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.97637799999999997</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.70078700000000005</v>
-      </c>
       <c r="N9" s="1">
-        <v>0.765432</v>
+        <v>0.92424200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.97637799999999997</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="P9" s="1">
-        <v>0.97637799999999997</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.29921300000000001</v>
+        <v>7.8740000000000004E-2</v>
       </c>
       <c r="R9" s="1">
-        <v>0.85813099999999998</v>
+        <v>0.94208499999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>0.67716500000000002</v>
+        <v>0.88188999999999995</v>
       </c>
       <c r="T9" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U9" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="V9" s="1">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="W9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X9" s="1">
-        <v>0.70444499999999999</v>
+        <v>0.88257399999999997</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>0.79805300000000001</v>
+        <v>0.80018800000000001</v>
       </c>
       <c r="C10">
-        <v>0.93155200000000005</v>
+        <v>0.87401600000000002</v>
       </c>
       <c r="D10">
-        <v>0.96577599999999997</v>
+        <v>0.93700799999999995</v>
       </c>
       <c r="E10">
-        <v>0.97253400000000001</v>
+        <v>0.93700799999999995</v>
       </c>
       <c r="F10">
-        <v>0.85826800000000003</v>
+        <v>0.87401600000000002</v>
       </c>
       <c r="G10">
-        <v>7.0865999999999998E-2</v>
+        <v>6.2992000000000006E-2</v>
       </c>
       <c r="H10">
-        <v>7.0865999999999998E-2</v>
+        <v>6.2992000000000006E-2</v>
       </c>
       <c r="I10">
-        <v>0.90551199999999998</v>
+        <v>0.99977199999999999</v>
       </c>
       <c r="J10">
-        <v>0.81102399999999997</v>
+        <v>0.34775600000000001</v>
       </c>
       <c r="K10">
-        <v>0.26771699999999998</v>
+        <v>6.2992000000000006E-2</v>
       </c>
       <c r="L10">
-        <v>0.97637799999999997</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="M10">
-        <v>0.48818899999999998</v>
+        <v>0.92125999999999997</v>
       </c>
       <c r="N10">
-        <v>0.65608500000000003</v>
+        <v>0.92366400000000004</v>
       </c>
       <c r="O10">
-        <v>0.97637799999999997</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="P10">
-        <v>0.97637799999999997</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="Q10">
-        <v>0.51181100000000002</v>
+        <v>7.8740000000000004E-2</v>
       </c>
       <c r="R10">
-        <v>0.78481000000000001</v>
+        <v>0.93798400000000004</v>
       </c>
       <c r="S10">
-        <v>0.46456700000000001</v>
+        <v>0.87401600000000002</v>
       </c>
       <c r="T10">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="U10">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="V10">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X10">
-        <v>0.53230999999999995</v>
+        <v>0.87444999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>0.82589299999999999</v>
+        <v>0.62816499999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>0.93366000000000005</v>
+        <v>0.75590599999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>0.96682999999999997</v>
+        <v>0.87795299999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.97411499999999995</v>
+        <v>0.87795299999999998</v>
       </c>
       <c r="F11" s="1">
-        <v>0.88188999999999995</v>
+        <v>0.75590599999999997</v>
       </c>
       <c r="G11" s="1">
-        <v>5.9055000000000003E-2</v>
+        <v>0.122047</v>
       </c>
       <c r="H11" s="1">
-        <v>5.9055000000000003E-2</v>
+        <v>0.122047</v>
       </c>
       <c r="I11" s="1">
-        <v>0.92913400000000002</v>
+        <v>0.99773500000000004</v>
       </c>
       <c r="J11" s="1">
-        <v>0.85826800000000003</v>
+        <v>0.72601499999999997</v>
       </c>
       <c r="K11" s="1">
-        <v>0.18503900000000001</v>
+        <v>0.122047</v>
       </c>
       <c r="L11" s="1">
-        <v>0.97637799999999997</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>0.65354299999999999</v>
+        <v>0.79527599999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>0.73809499999999995</v>
+        <v>0.82432399999999995</v>
       </c>
       <c r="O11" s="1">
-        <v>0.97637799999999997</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="P11" s="1">
-        <v>0.97637799999999997</v>
+        <v>0.96062999999999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.34645700000000001</v>
+        <v>0.20472399999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>0.84067800000000004</v>
+        <v>0.88727299999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>0.62992099999999995</v>
+        <v>0.75590599999999997</v>
       </c>
       <c r="T11" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U11" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="V11" s="1">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="W11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X11" s="1">
-        <v>0.66555799999999998</v>
+        <v>0.76645600000000003</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>0.83674199999999999</v>
+        <v>0.80018800000000001</v>
       </c>
       <c r="C12">
-        <v>0.94023199999999996</v>
+        <v>0.87401600000000002</v>
       </c>
       <c r="D12">
-        <v>0.97011599999999998</v>
+        <v>0.93700799999999995</v>
       </c>
       <c r="E12">
-        <v>0.97783500000000001</v>
+        <v>0.93700799999999995</v>
       </c>
       <c r="F12">
-        <v>0.889764</v>
+        <v>0.87401600000000002</v>
       </c>
       <c r="G12">
-        <v>5.5118E-2</v>
+        <v>6.2992000000000006E-2</v>
       </c>
       <c r="H12">
-        <v>5.5118E-2</v>
+        <v>6.2992000000000006E-2</v>
       </c>
       <c r="I12">
-        <v>0.93700799999999995</v>
+        <v>0.99977199999999999</v>
       </c>
       <c r="J12">
-        <v>0.91338600000000003</v>
+        <v>0.34775600000000001</v>
       </c>
       <c r="K12">
-        <v>0.165354</v>
+        <v>6.2992000000000006E-2</v>
       </c>
       <c r="L12">
-        <v>0.97637799999999997</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="M12">
-        <v>0.692913</v>
+        <v>0.92125999999999997</v>
       </c>
       <c r="N12">
-        <v>0.76073599999999997</v>
+        <v>0.92366400000000004</v>
       </c>
       <c r="O12">
-        <v>0.97637799999999997</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="P12">
-        <v>0.97637799999999997</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="Q12">
-        <v>0.307087</v>
+        <v>7.8740000000000004E-2</v>
       </c>
       <c r="R12">
-        <v>0.85517200000000004</v>
+        <v>0.93798400000000004</v>
       </c>
       <c r="S12">
-        <v>0.66929099999999997</v>
+        <v>0.87401600000000002</v>
       </c>
       <c r="T12">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="U12">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X12">
-        <v>0.69791800000000004</v>
+        <v>0.87444999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>0.843391</v>
+        <v>0.77594099999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.94420000000000004</v>
+        <v>0.85826800000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>0.97209999999999996</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.97792800000000002</v>
+        <v>0.92913400000000002</v>
       </c>
       <c r="F13" s="1">
-        <v>0.89763800000000005</v>
+        <v>0.85826800000000003</v>
       </c>
       <c r="G13" s="1">
-        <v>5.1180999999999997E-2</v>
+        <v>7.0865999999999998E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>5.1180999999999997E-2</v>
+        <v>7.0865999999999998E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>0.944882</v>
+        <v>0.99972700000000003</v>
       </c>
       <c r="J13" s="1">
-        <v>0.93700799999999995</v>
+        <v>0.44858900000000002</v>
       </c>
       <c r="K13" s="1">
-        <v>0.141732</v>
+        <v>7.0865999999999998E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="M13" s="1">
-        <v>0.748031</v>
+        <v>0.90551199999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>0.79354800000000003</v>
+        <v>0.90977399999999997</v>
       </c>
       <c r="O13" s="1">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="P13" s="1">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.251969</v>
+        <v>9.4488000000000003E-2</v>
       </c>
       <c r="R13" s="1">
-        <v>0.87234</v>
+        <v>0.93076899999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>0.71653500000000003</v>
+        <v>0.85826800000000003</v>
       </c>
       <c r="T13" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U13" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="V13" s="1">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="W13" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X13" s="1">
-        <v>0.73461200000000004</v>
+        <v>0.85922699999999996</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>0.77522400000000002</v>
+        <v>0.693666</v>
       </c>
       <c r="C14">
-        <v>0.92448399999999997</v>
+        <v>0.80315000000000003</v>
       </c>
       <c r="D14">
-        <v>0.96224200000000004</v>
+        <v>0.90157500000000002</v>
       </c>
       <c r="E14">
-        <v>0.96996099999999996</v>
+        <v>0.90157500000000002</v>
       </c>
       <c r="F14">
-        <v>0.834646</v>
+        <v>0.80315000000000003</v>
       </c>
       <c r="G14">
-        <v>8.2677E-2</v>
+        <v>9.8424999999999999E-2</v>
       </c>
       <c r="H14">
-        <v>8.2677E-2</v>
+        <v>9.8424999999999999E-2</v>
       </c>
       <c r="I14">
+        <v>0.99956699999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.63433499999999998</v>
+      </c>
+      <c r="K14">
+        <v>9.8424999999999999E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.95275600000000005</v>
+      </c>
+      <c r="M14">
         <v>0.85039399999999998</v>
       </c>
-      <c r="J14">
-        <v>0.85039399999999998</v>
-      </c>
-      <c r="K14">
-        <v>0.18897600000000001</v>
-      </c>
-      <c r="L14">
-        <v>0.96850400000000003</v>
-      </c>
-      <c r="M14">
-        <v>0.65354299999999999</v>
-      </c>
       <c r="N14">
-        <v>0.73652700000000004</v>
+        <v>0.864286</v>
       </c>
       <c r="O14">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="P14">
-        <v>0.96850400000000003</v>
+        <v>0.95275600000000005</v>
       </c>
       <c r="Q14">
-        <v>0.34645700000000001</v>
+        <v>0.14960599999999999</v>
       </c>
       <c r="R14">
-        <v>0.83673500000000001</v>
+        <v>0.90636700000000003</v>
       </c>
       <c r="S14">
-        <v>0.62204700000000002</v>
+        <v>0.80315000000000003</v>
       </c>
       <c r="T14">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U14">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="V14">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="W14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X14">
-        <v>0.65540399999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.84085799999999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.936388</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.968194</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.97473500000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.89763800000000005</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5.1180999999999997E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5.1180999999999997E-2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.944882</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.92913400000000002</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.161417</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.96850400000000003</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.70866099999999999</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.76875000000000004</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.96850400000000003</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.96850400000000003</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.29133900000000001</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.85714299999999999</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.67716500000000002</v>
-      </c>
-      <c r="T15" s="1">
-        <v>123</v>
-      </c>
-      <c r="U15" s="1">
-        <v>37</v>
-      </c>
-      <c r="V15" s="1">
-        <v>90</v>
-      </c>
-      <c r="W15" s="1">
-        <v>4</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0.70125300000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>0.84347000000000005</v>
-      </c>
-      <c r="C16">
-        <v>0.94233999999999996</v>
-      </c>
-      <c r="D16">
-        <v>0.97116999999999998</v>
-      </c>
-      <c r="E16">
-        <v>0.97736999999999996</v>
-      </c>
-      <c r="F16">
-        <v>0.89763800000000005</v>
-      </c>
-      <c r="G16">
-        <v>5.1180999999999997E-2</v>
-      </c>
-      <c r="H16">
-        <v>5.1180999999999997E-2</v>
-      </c>
-      <c r="I16">
-        <v>0.944882</v>
-      </c>
-      <c r="J16">
-        <v>0.92125999999999997</v>
-      </c>
-      <c r="K16">
-        <v>0.15354300000000001</v>
-      </c>
-      <c r="L16">
-        <v>0.96850400000000003</v>
-      </c>
-      <c r="M16">
-        <v>0.72440899999999997</v>
-      </c>
-      <c r="N16">
-        <v>0.77848099999999998</v>
-      </c>
-      <c r="O16">
-        <v>0.96850400000000003</v>
-      </c>
-      <c r="P16">
-        <v>0.96850400000000003</v>
-      </c>
-      <c r="Q16">
-        <v>0.27559099999999997</v>
-      </c>
-      <c r="R16">
-        <v>0.86315799999999998</v>
-      </c>
-      <c r="S16">
-        <v>0.692913</v>
-      </c>
-      <c r="T16">
-        <v>123</v>
-      </c>
-      <c r="U16">
-        <v>35</v>
-      </c>
-      <c r="V16">
-        <v>92</v>
-      </c>
-      <c r="W16">
-        <v>4</v>
-      </c>
-      <c r="X16">
-        <v>0.71452700000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+        <v>0.80739099999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
